--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -176,58 +176,164 @@
   </si>
   <si>
     <t>重要</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>芝麻信用定时器逻辑修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>定时器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>安栋</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>重要</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>紧急</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>房东App集中式子账号查询房源</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>房东App</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心30天租金算法入口放开</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zu'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suan'f</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ru'k</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'k</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>new feature</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'h</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App个性房源推荐数据显示问题</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码未上线</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -356,13 +462,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -377,8 +476,26 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,14 +520,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -516,19 +627,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -746,19 +844,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,18 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1173,7 +1271,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,50 +1366,50 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="68">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="62">
         <v>42671</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="62">
         <v>42671</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="61" t="s">
         <v>46</v>
       </c>
       <c r="O2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="62">
         <v>42674</v>
       </c>
       <c r="Q2" s="39" t="s">
@@ -1324,7 +1422,7 @@
       <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="68">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1336,38 +1434,38 @@
       <c r="D3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="62">
         <v>42674</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="62">
         <v>42674</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="61"/>
       <c r="L3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="70" t="s">
+      <c r="N3" s="61" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="71">
+      <c r="P3" s="62">
         <v>42674</v>
       </c>
       <c r="Q3" s="39" t="s">
@@ -1380,23 +1478,55 @@
       <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="39"/>
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="66">
+        <v>42674</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="66">
+        <v>42674</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="66">
+        <v>42674</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="45"/>
@@ -1404,27 +1534,61 @@
       <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="62"/>
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="32">
+        <v>42674</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="32">
+        <v>42656</v>
+      </c>
       <c r="K5" s="31"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="44"/>
+      <c r="L5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="32">
+        <v>42674</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -6465,36 +6629,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">

--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -327,6 +327,10 @@
   <si>
     <t>优化代码未上线</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,7 +1275,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D5" s="54" t="s">
         <v>68</v>

--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -289,47 +289,107 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>BUG</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码未上线</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财账单支付完后同步导致多笔重复流水记录</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器,租客App</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>租客App个性房源推荐数据显示问题</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>BUG</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客App</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化代码未上线</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>不紧急</t>
+    <t>退房文案修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>严宏飞</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1335,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,74 +1605,106 @@
         <v>47</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>70</v>
       </c>
       <c r="H5" s="32">
         <v>42674</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="32">
         <v>42656</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="O5" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="P5" s="32">
         <v>42674</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
       <c r="U5" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="39"/>
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="62">
+        <v>42674</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="62">
+        <v>42674</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="62">
+        <v>42674</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="58"/>
@@ -1620,23 +1712,55 @@
       <c r="V6" s="43"/>
     </row>
     <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="39"/>
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="62">
+        <v>42674</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="62">
+        <v>42674</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="62">
+        <v>42674</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="45"/>

--- a/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
+++ b/VersionRecords/Version 5.0.4.4 20161031/版本Bug和特性计划及评审表v5.0.4.4.xlsx
@@ -325,10 +325,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>不紧急</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -386,6 +382,10 @@
   </si>
   <si>
     <t>BS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,10 +1605,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>68</v>
@@ -1663,16 +1663,16 @@
         <v>47</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="E6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>19</v>
@@ -1688,16 +1688,16 @@
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="N6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="O6" s="39" t="s">
         <v>83</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>84</v>
       </c>
       <c r="P6" s="62">
         <v>42674</v>
@@ -1719,16 +1719,16 @@
         <v>47</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>91</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>92</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>19</v>
@@ -1744,13 +1744,13 @@
       </c>
       <c r="K7" s="61"/>
       <c r="L7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="N7" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="O7" s="39" t="s">
         <v>51</v>
